--- a/results/FrequencyTables/26796669_gLTR4.xlsx
+++ b/results/FrequencyTables/26796669_gLTR4.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00144822592324403</v>
       </c>
       <c r="C2">
-        <v>0.13</v>
+        <v>0.136133236784938</v>
       </c>
       <c r="D2">
-        <v>0.17</v>
+        <v>0.139029688631427</v>
       </c>
       <c r="E2">
-        <v>0.11</v>
+        <v>0.0738595220854453</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00144822592324403</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00144822592324403</v>
       </c>
       <c r="H2">
-        <v>0.94</v>
+        <v>0.864590876176684</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00941346850108617</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="K2">
-        <v>0.91</v>
+        <v>0.862418537291817</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0238957277335264</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00217233888486604</v>
       </c>
       <c r="O2">
-        <v>0.01</v>
+        <v>0.0123099203475742</v>
       </c>
       <c r="P2">
-        <v>0.95</v>
+        <v>0.826212889210717</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00724112961622013</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00506879073135409</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.99637943519189</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0108616944243302</v>
       </c>
       <c r="U2">
-        <v>0.34</v>
+        <v>0.423606082548878</v>
       </c>
       <c r="V2">
-        <v>0.04</v>
+        <v>0.0246198406951484</v>
       </c>
       <c r="W2">
-        <v>0.03</v>
+        <v>0.0992034757422158</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00796524257784214</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.98</v>
+        <v>0.952208544532947</v>
       </c>
       <c r="C3">
-        <v>0.87</v>
+        <v>0.853005068790731</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0166545981173063</v>
       </c>
       <c r="E3">
-        <v>0.87</v>
+        <v>0.880521361332368</v>
       </c>
       <c r="F3">
-        <v>0.98</v>
+        <v>0.982621288921072</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00217233888486604</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.0166545981173063</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00289645184648805</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.986241853729182</v>
       </c>
       <c r="K3">
-        <v>0.06</v>
+        <v>0.0658942795076032</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0.0275162925416365</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00362056480811007</v>
       </c>
       <c r="N3">
-        <v>0.14</v>
+        <v>0.163649529326575</v>
       </c>
       <c r="O3">
-        <v>0.95</v>
+        <v>0.980448950036206</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01</v>
+        <v>0.0383779869659667</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.994207096307024</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00217233888486604</v>
       </c>
       <c r="T3">
-        <v>0.94</v>
+        <v>0.942795076031861</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0238957277335264</v>
       </c>
       <c r="V3">
-        <v>0.03</v>
+        <v>0.0238957277335264</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0057929036929761</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00217233888486604</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00434467776973208</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00144822592324403</v>
       </c>
       <c r="D4">
-        <v>0.81</v>
+        <v>0.769007965242578</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.0340333091962346</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00144822592324403</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00217233888486604</v>
       </c>
       <c r="H4">
-        <v>0.05</v>
+        <v>0.1151339608979</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.984793627805938</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0101375814627082</v>
       </c>
       <c r="K4">
-        <v>0.03</v>
+        <v>0.0629978276611151</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0123099203475742</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00362056480811007</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0101375814627082</v>
       </c>
       <c r="O4">
-        <v>0.04</v>
+        <v>0.00651701665459812</v>
       </c>
       <c r="P4">
-        <v>0.05</v>
+        <v>0.164373642288197</v>
       </c>
       <c r="Q4">
-        <v>0.05</v>
+        <v>0.0231716147719044</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00144822592324403</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="U4">
-        <v>0.66</v>
+        <v>0.545981173062998</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.0246198406951484</v>
       </c>
       <c r="W4">
-        <v>0.97</v>
+        <v>0.881969587255612</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.98551774076756</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,52 +687,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>0.0419985517740768</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00941346850108617</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.0738595220854453</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.0115858073859522</v>
       </c>
       <c r="F5">
-        <v>0.02</v>
+        <v>0.0144822592324403</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.994207096307024</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00289645184648805</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00289645184648805</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00217233888486604</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00868935553946416</v>
       </c>
       <c r="L5">
-        <v>0.99</v>
+        <v>0.960173787110789</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.968863142650253</v>
       </c>
       <c r="N5">
-        <v>0.86</v>
+        <v>0.823316437364229</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00941346850108617</v>
       </c>
       <c r="Q5">
-        <v>0.94</v>
+        <v>0.931209268645909</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06</v>
+        <v>0.0456191165821868</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0057929036929761</v>
       </c>
       <c r="V5">
-        <v>0.92</v>
+        <v>0.926864590876177</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0130340333091962</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00362056480811007</v>
       </c>
     </row>
   </sheetData>
